--- a/sputnik/personal/uch/uch25.xlsx
+++ b/sputnik/personal/uch/uch25.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
@@ -37,6 +34,12 @@
   </si>
   <si>
     <t>Оплачен членский взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №25</t>
   </si>
 </sst>
 </file>
@@ -171,12 +174,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,9 +508,11 @@
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -518,7 +525,7 @@
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5">
         <v>9545.69</v>
@@ -530,7 +537,7 @@
         <v>43309</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
@@ -542,7 +549,7 @@
         <v>43586</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="6">
         <v>9410.17</v>
@@ -554,7 +561,7 @@
         <v>43692</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="6">
@@ -568,9 +575,6 @@
       <c r="D7" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch25.xlsx
+++ b/sputnik/personal/uch/uch25.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Наименование / садовый участок №25</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -154,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -183,6 +186,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -493,7 +497,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -569,9 +573,15 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="12">
+        <v>43952</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7">
+        <v>10587.5</v>
+      </c>
       <c r="D7" s="7"/>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch25.xlsx
+++ b/sputnik/personal/uch/uch25.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -157,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -187,6 +187,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -494,10 +498,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C7" sqref="C7:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -579,10 +583,34 @@
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="14">
         <v>10587.5</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>44040</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14">
+        <v>10587.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch25.xlsx
+++ b/sputnik/personal/uch/uch25.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D10"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -601,9 +604,15 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="14"/>
+      <c r="A9" s="12">
+        <v>44317</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="14">
+        <v>11290.51</v>
+      </c>
       <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/uch/uch25.xlsx
+++ b/sputnik/personal/uch/uch25.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -504,7 +504,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -616,10 +616,16 @@
       <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="12">
+        <v>44375</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="D10" s="14">
+        <v>11290.51</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
